--- a/LMS-TBB-BDD-PHASE2/TestData/Login.xlsx
+++ b/LMS-TBB-BDD-PHASE2/TestData/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C2115A17-DBC3-4FC0-BC25-148526AC874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{836C849D-13C0-4C23-BB68-2A19375D7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2C095C2A-50D0-4D49-BF24-E01C2F89E543}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>User</t>
   </si>
@@ -42,16 +42,45 @@
   </si>
   <si>
     <t>Numpy_Ninja</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>1234@gmail.com</t>
+  </si>
+  <si>
+    <t>numpyninja@gmail.com</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Retype Password</t>
+  </si>
+  <si>
+    <t>SDET123</t>
+  </si>
+  <si>
+    <t>sdet123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +103,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,27 +425,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E53DAD-B060-4E92-A7B6-09D72352C788}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -421,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -429,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -437,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -445,17 +489,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{E4BEA26B-AB68-4CC3-BECD-EB91ABB93122}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{33E1A99F-6063-4038-A111-88A3E83D9DA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>